--- a/data/LL44/DataDictionaryHPD_LL44.xlsx
+++ b/data/LL44/DataDictionaryHPD_LL44.xlsx
@@ -1,32 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11028"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\POLICY-STRATEGY -SOA\BIDI\Open Data\Documentation\Housing Production\Local Law 44\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tatianakalainoff/Documents/GitHub/gowanus-rezoning/data/LL44/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43542ED9-AD29-4D17-BA2C-5242B8E7FAF3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0579ED0-DDE4-9D4F-BB82-AFF79864C381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Database Info" sheetId="7" r:id="rId1"/>
     <sheet name="Column Info" sheetId="13" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="15" state="hidden" r:id="rId3"/>
-    <sheet name="Dataset Revision History" sheetId="17" r:id="rId4"/>
-    <sheet name="Diagram" sheetId="16" r:id="rId5"/>
+    <sheet name="Selected Columns" sheetId="20" r:id="rId4"/>
+    <sheet name="Dataset Revision History" sheetId="17" r:id="rId5"/>
+    <sheet name="Diagram" sheetId="16" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Selected Columns'!$A$1:$F$123</definedName>
     <definedName name="Categories">Sheet2!$B$15:$B$23</definedName>
     <definedName name="category">Sheet2!$B$14:$B$23</definedName>
     <definedName name="frequency">Sheet2!$B$2:$B$13</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Column Info'!$A$1:$E$123</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Database Info'!$A$1:$B$12</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Dataset Revision History'!$A$1:$F$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Dataset Revision History'!$A$1:$F$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Selected Columns'!$B$1:$F$122</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Column Info'!$2:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'Selected Columns'!$1:$1</definedName>
     <definedName name="Update_Frequency">Sheet2!$B$2:$B$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -42,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="335">
   <si>
     <t>Date</t>
   </si>
@@ -1135,6 +1139,12 @@
   </si>
   <si>
     <t xml:space="preserve">The ProgramName column was replaced with ProgramGroup to protect data privacy per Local Law 245 and Local Law 247 of 2017. </t>
+  </si>
+  <si>
+    <t>Selected</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -1436,7 +1446,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1444,68 +1454,59 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1517,52 +1518,19 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1580,7 +1548,7 @@
     <xf numFmtId="14" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1598,28 +1566,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1783,13 +1751,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>571962</xdr:colOff>
+      <xdr:colOff>573170</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>19938</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1819,8 +1787,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="190500" y="66675"/>
-          <a:ext cx="7696662" cy="6105525"/>
+          <a:off x="190500" y="66674"/>
+          <a:ext cx="8459870" cy="6227064"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1843,9 +1811,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1883,9 +1851,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1918,26 +1886,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1970,26 +1921,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2168,126 +2102,126 @@
   </sheetPr>
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" style="6" customWidth="1"/>
-    <col min="2" max="2" width="77.140625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" style="6" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="45.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="77.1640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="34.1640625" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13"/>
-      <c r="B1" s="13"/>
-    </row>
-    <row r="2" spans="1:3" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="50" t="s">
+    <row r="1" spans="1:3" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+    </row>
+    <row r="2" spans="1:3" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="30"/>
-    </row>
-    <row r="3" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="55" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="26"/>
+    </row>
+    <row r="3" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="24"/>
-    </row>
-    <row r="4" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="49" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="21"/>
+    </row>
+    <row r="4" spans="1:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="23"/>
-    </row>
-    <row r="5" spans="1:3" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="20" t="s">
+      <c r="B4" s="35"/>
+      <c r="C4" s="20"/>
+    </row>
+    <row r="5" spans="1:3" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="31"/>
-    </row>
-    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
+      <c r="C5" s="27"/>
+    </row>
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A6" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="31"/>
-    </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
+      <c r="C6" s="27"/>
+    </row>
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A7" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="31"/>
-    </row>
-    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+      <c r="C7" s="27"/>
+    </row>
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A8" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="C8" s="31"/>
-    </row>
-    <row r="9" spans="1:3" ht="102" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+      <c r="C8" s="27"/>
+    </row>
+    <row r="9" spans="1:3" ht="102" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="C9" s="31"/>
-    </row>
-    <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="C9" s="27"/>
+    </row>
+    <row r="10" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="38" t="s">
         <v>278</v>
       </c>
-      <c r="C10" s="31"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="56"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="31"/>
-    </row>
-    <row r="12" spans="1:3" ht="180" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="57"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="31"/>
-    </row>
-    <row r="15" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A15" s="49" t="s">
+      <c r="C10" s="27"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="42"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="27"/>
+    </row>
+    <row r="12" spans="1:3" ht="180" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="43"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="27"/>
+    </row>
+    <row r="15" spans="1:3" ht="23" x14ac:dyDescent="0.25">
+      <c r="A15" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="23"/>
-    </row>
-    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="B15" s="35"/>
+      <c r="C15" s="20"/>
+    </row>
+    <row r="16" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A16" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="84" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>82</v>
       </c>
@@ -2298,7 +2232,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="56" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>46</v>
       </c>
@@ -2309,7 +2243,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="56" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>83</v>
       </c>
@@ -2320,7 +2254,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="70" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>48</v>
       </c>
@@ -2331,7 +2265,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="56" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>175</v>
       </c>
@@ -2342,7 +2276,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="70" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>49</v>
       </c>
@@ -2353,7 +2287,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="56" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>50</v>
       </c>
@@ -2364,7 +2298,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="56" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>51</v>
       </c>
@@ -2375,7 +2309,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="84" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>53</v>
       </c>
@@ -2386,7 +2320,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="84" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>52</v>
       </c>
@@ -2397,14 +2331,14 @@
         <v>271</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A27" s="17" t="s">
+    <row r="27" spans="1:3" ht="56" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="2" t="s">
         <v>272</v>
       </c>
     </row>
@@ -2435,1805 +2369,1805 @@
   <dimension ref="A1:E123"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="42.85546875" style="28" customWidth="1"/>
-    <col min="4" max="4" width="38.28515625" style="28" customWidth="1"/>
-    <col min="5" max="5" width="65.28515625" style="28" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="27.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="65.33203125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-    </row>
-    <row r="2" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+    </row>
+    <row r="2" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="13" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:5" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A3" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="28" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="5" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:5" s="3" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="34" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="29" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+    <row r="5" spans="1:5" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A5" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-    </row>
-    <row r="6" spans="1:5" s="5" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="44" t="s">
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+    </row>
+    <row r="6" spans="1:5" s="3" customFormat="1" ht="56" x14ac:dyDescent="0.15">
+      <c r="A6" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="32" t="s">
         <v>295</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="30" t="s">
         <v>306</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="30" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+    <row r="7" spans="1:5" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A7" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16" t="s">
+      <c r="D7" s="14"/>
+      <c r="E7" s="14" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+    <row r="8" spans="1:5" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A8" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17" t="s">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A9" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17" t="s">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="44" t="s">
+    <row r="10" spans="1:5" ht="56" x14ac:dyDescent="0.15">
+      <c r="A10" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="30" t="s">
         <v>307</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="31" t="s">
         <v>310</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-    </row>
-    <row r="11" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" s="44" t="s">
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+    </row>
+    <row r="11" spans="1:5" ht="56" x14ac:dyDescent="0.15">
+      <c r="A11" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="30" t="s">
         <v>308</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="31" t="s">
         <v>311</v>
       </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-    </row>
-    <row r="12" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A12" s="44" t="s">
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+    </row>
+    <row r="12" spans="1:5" ht="42" x14ac:dyDescent="0.15">
+      <c r="A12" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="30" t="s">
         <v>309</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="31" t="s">
         <v>312</v>
       </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+    </row>
+    <row r="13" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A13" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-    </row>
-    <row r="14" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A14" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17" t="s">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
+    <row r="15" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A15" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17" t="s">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
+    <row r="16" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A16" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17" t="s">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
+    <row r="17" spans="1:5" ht="42" x14ac:dyDescent="0.15">
+      <c r="A17" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-    </row>
-    <row r="18" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A18" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E18" s="17"/>
-    </row>
-    <row r="19" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" ht="42" x14ac:dyDescent="0.15">
+      <c r="A19" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-    </row>
-    <row r="20" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A20" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="28" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
+    <row r="21" spans="1:5" ht="42" x14ac:dyDescent="0.15">
+      <c r="A21" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="35" t="s">
+      <c r="D21" s="2"/>
+      <c r="E21" s="29" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
+    <row r="22" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A22" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17" t="s">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="153" x14ac:dyDescent="0.2">
-      <c r="A23" s="44" t="s">
+    <row r="23" spans="1:5" ht="154" x14ac:dyDescent="0.15">
+      <c r="A23" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="30" t="s">
         <v>304</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="31" t="s">
         <v>313</v>
       </c>
-      <c r="D23" s="45" t="s">
+      <c r="D23" s="31" t="s">
         <v>305</v>
       </c>
-      <c r="E23" s="45"/>
-    </row>
-    <row r="24" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
+      <c r="E23" s="31"/>
+    </row>
+    <row r="24" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A24" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E24" s="17"/>
-    </row>
-    <row r="25" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A25" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-    </row>
-    <row r="26" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="16" t="s">
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A26" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-    </row>
-    <row r="27" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="16" t="s">
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" ht="42" x14ac:dyDescent="0.15">
+      <c r="A27" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-    </row>
-    <row r="28" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="16" t="s">
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A28" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17" t="s">
+      <c r="D28" s="2"/>
+      <c r="E28" s="2" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="16" t="s">
+    <row r="29" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A29" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17" t="s">
+      <c r="D29" s="2"/>
+      <c r="E29" s="2" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="44" t="s">
+    <row r="30" spans="1:5" ht="56" x14ac:dyDescent="0.15">
+      <c r="A30" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="30" t="s">
         <v>307</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="C30" s="31" t="s">
         <v>310</v>
       </c>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
-    </row>
-    <row r="31" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A31" s="44" t="s">
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+    </row>
+    <row r="31" spans="1:5" ht="56" x14ac:dyDescent="0.15">
+      <c r="A31" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="30" t="s">
         <v>308</v>
       </c>
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="31" t="s">
         <v>311</v>
       </c>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-    </row>
-    <row r="32" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A32" s="44" t="s">
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+    </row>
+    <row r="32" spans="1:5" ht="42" x14ac:dyDescent="0.15">
+      <c r="A32" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="30" t="s">
         <v>309</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="31" t="s">
         <v>312</v>
       </c>
-      <c r="D32" s="45"/>
-      <c r="E32" s="45"/>
-    </row>
-    <row r="33" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="16" t="s">
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+    </row>
+    <row r="33" spans="1:5" ht="42" x14ac:dyDescent="0.15">
+      <c r="A33" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17" t="s">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="16" t="s">
+    <row r="34" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A34" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-    </row>
-    <row r="35" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="16" t="s">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" ht="42" x14ac:dyDescent="0.15">
+      <c r="A35" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17" t="s">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="16" t="s">
+    <row r="36" spans="1:5" ht="56" x14ac:dyDescent="0.15">
+      <c r="A36" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D36" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="E36" s="15" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="16" t="s">
+    <row r="37" spans="1:5" ht="56" x14ac:dyDescent="0.15">
+      <c r="A37" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18" t="s">
+      <c r="D37" s="15"/>
+      <c r="E37" s="15" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="16" t="s">
+    <row r="38" spans="1:5" ht="56" x14ac:dyDescent="0.15">
+      <c r="A38" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18" t="s">
+      <c r="D38" s="15"/>
+      <c r="E38" s="15" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="16" t="s">
+    <row r="39" spans="1:5" ht="56" x14ac:dyDescent="0.15">
+      <c r="A39" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="D39" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="E39" s="18" t="s">
+      <c r="E39" s="15" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="16" t="s">
+    <row r="40" spans="1:5" ht="56" x14ac:dyDescent="0.15">
+      <c r="A40" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="E40" s="15" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="16" t="s">
+    <row r="41" spans="1:5" ht="56" x14ac:dyDescent="0.15">
+      <c r="A41" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="E41" s="15" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="16" t="s">
+    <row r="42" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="D42" s="17" t="s">
+      <c r="D42" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="E42" s="18" t="s">
+      <c r="E42" s="15" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="16" t="s">
+    <row r="43" spans="1:5" ht="56" x14ac:dyDescent="0.15">
+      <c r="A43" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D43" s="17" t="s">
+      <c r="D43" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="E43" s="18" t="s">
+      <c r="E43" s="15" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="16" t="s">
+    <row r="44" spans="1:5" ht="56" x14ac:dyDescent="0.15">
+      <c r="A44" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D44" s="17" t="s">
+      <c r="D44" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="E44" s="18" t="s">
+      <c r="E44" s="15" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="16" t="s">
+    <row r="45" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="C45" s="59" t="s">
+      <c r="C45" s="45" t="s">
         <v>303</v>
       </c>
-      <c r="D45" s="17"/>
-      <c r="E45" s="18"/>
-    </row>
-    <row r="46" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="16" t="s">
+      <c r="D45" s="2"/>
+      <c r="E45" s="15"/>
+    </row>
+    <row r="46" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="C46" s="60"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="18"/>
-    </row>
-    <row r="47" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="16" t="s">
+      <c r="C46" s="46"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="15"/>
+    </row>
+    <row r="47" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A47" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D47" s="17"/>
-      <c r="E47" s="32" t="s">
+      <c r="D47" s="2"/>
+      <c r="E47" s="28" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="16" t="s">
+    <row r="48" spans="1:5" ht="42" x14ac:dyDescent="0.15">
+      <c r="A48" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="36" t="s">
+      <c r="D48" s="2"/>
+      <c r="E48" s="29" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="16" t="s">
+    <row r="49" spans="1:5" ht="42" x14ac:dyDescent="0.15">
+      <c r="A49" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C49" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-    </row>
-    <row r="50" spans="1:5" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="16" t="s">
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" ht="140" x14ac:dyDescent="0.15">
+      <c r="A50" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17" t="s">
+      <c r="D50" s="2"/>
+      <c r="E50" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A51" s="16" t="s">
+    <row r="51" spans="1:5" ht="56" x14ac:dyDescent="0.15">
+      <c r="A51" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-    </row>
-    <row r="52" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A52" s="16" t="s">
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" ht="56" x14ac:dyDescent="0.15">
+      <c r="A52" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-    </row>
-    <row r="53" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="16" t="s">
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A53" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="B53" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C53" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D53" s="17" t="s">
+      <c r="D53" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E53" s="17"/>
-    </row>
-    <row r="54" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="16" t="s">
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A54" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C54" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-    </row>
-    <row r="55" spans="1:5" ht="153" x14ac:dyDescent="0.2">
-      <c r="A55" s="16" t="s">
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" ht="154" x14ac:dyDescent="0.15">
+      <c r="A55" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="C55" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D55" s="17" t="s">
+      <c r="D55" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E55" s="17" t="s">
+      <c r="E55" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="16" t="s">
+    <row r="56" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A56" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B56" s="16" t="s">
+      <c r="B56" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="C56" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-    </row>
-    <row r="57" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A57" s="16" t="s">
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="1:5" ht="56" x14ac:dyDescent="0.15">
+      <c r="A57" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="B57" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="C57" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D57" s="17" t="s">
+      <c r="D57" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E57" s="17"/>
-    </row>
-    <row r="58" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="16" t="s">
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A58" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C58" s="17" t="s">
+      <c r="C58" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-    </row>
-    <row r="59" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="16" t="s">
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="1:5" ht="42" x14ac:dyDescent="0.15">
+      <c r="A59" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="B59" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C59" s="17" t="s">
+      <c r="C59" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-    </row>
-    <row r="60" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="16" t="s">
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A60" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-    </row>
-    <row r="61" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="16" t="s">
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A61" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B61" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="C61" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-    </row>
-    <row r="62" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="16" t="s">
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A62" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B62" s="16" t="s">
+      <c r="B62" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="C62" s="17" t="s">
+      <c r="C62" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
-    </row>
-    <row r="63" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="16" t="s">
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A63" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="B63" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="C63" s="17" t="s">
+      <c r="C63" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
-    </row>
-    <row r="64" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="16" t="s">
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A64" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="B64" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="C64" s="17" t="s">
+      <c r="C64" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-    </row>
-    <row r="65" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="16" t="s">
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A65" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B65" s="16" t="s">
+      <c r="B65" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="C65" s="17" t="s">
+      <c r="C65" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
-    </row>
-    <row r="66" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="16" t="s">
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="1:5" ht="56" x14ac:dyDescent="0.15">
+      <c r="A66" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B66" s="18" t="s">
+      <c r="B66" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="C66" s="17" t="s">
+      <c r="C66" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D66" s="17" t="s">
+      <c r="D66" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E66" s="18" t="s">
+      <c r="E66" s="15" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A67" s="16" t="s">
+    <row r="67" spans="1:5" ht="56" x14ac:dyDescent="0.15">
+      <c r="A67" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B67" s="18" t="s">
+      <c r="B67" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="C67" s="18" t="s">
+      <c r="C67" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18" t="s">
+      <c r="D67" s="15"/>
+      <c r="E67" s="15" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="16" t="s">
+    <row r="68" spans="1:5" ht="56" x14ac:dyDescent="0.15">
+      <c r="A68" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B68" s="18" t="s">
+      <c r="B68" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="C68" s="18" t="s">
+      <c r="C68" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18" t="s">
+      <c r="D68" s="15"/>
+      <c r="E68" s="15" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="16" t="s">
+    <row r="69" spans="1:5" ht="56" x14ac:dyDescent="0.15">
+      <c r="A69" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B69" s="18" t="s">
+      <c r="B69" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="C69" s="17" t="s">
+      <c r="C69" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="D69" s="17" t="s">
+      <c r="D69" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="E69" s="18" t="s">
+      <c r="E69" s="15" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="16" t="s">
+    <row r="70" spans="1:5" ht="56" x14ac:dyDescent="0.15">
+      <c r="A70" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B70" s="18" t="s">
+      <c r="B70" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="C70" s="17" t="s">
+      <c r="C70" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D70" s="17" t="s">
+      <c r="D70" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="E70" s="18" t="s">
+      <c r="E70" s="15" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="16" t="s">
+    <row r="71" spans="1:5" ht="56" x14ac:dyDescent="0.15">
+      <c r="A71" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B71" s="18" t="s">
+      <c r="B71" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="C71" s="17" t="s">
+      <c r="C71" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D71" s="17" t="s">
+      <c r="D71" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="E71" s="18" t="s">
+      <c r="E71" s="15" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="16" t="s">
+    <row r="72" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B72" s="18" t="s">
+      <c r="B72" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C72" s="17" t="s">
+      <c r="C72" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="D72" s="17" t="s">
+      <c r="D72" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="E72" s="18" t="s">
+      <c r="E72" s="15" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="16" t="s">
+    <row r="73" spans="1:5" ht="56" x14ac:dyDescent="0.15">
+      <c r="A73" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B73" s="18" t="s">
+      <c r="B73" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="C73" s="17" t="s">
+      <c r="C73" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D73" s="17" t="s">
+      <c r="D73" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="E73" s="18" t="s">
+      <c r="E73" s="15" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="16" t="s">
+    <row r="74" spans="1:5" ht="56" x14ac:dyDescent="0.15">
+      <c r="A74" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="B74" s="18" t="s">
+      <c r="B74" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="C74" s="17" t="s">
+      <c r="C74" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D74" s="17" t="s">
+      <c r="D74" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="E74" s="18" t="s">
+      <c r="E74" s="15" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A75" s="16" t="s">
+    <row r="75" spans="1:5" ht="42" x14ac:dyDescent="0.15">
+      <c r="A75" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B75" s="16" t="s">
+      <c r="B75" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C75" s="17" t="s">
+      <c r="C75" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D75" s="17"/>
-      <c r="E75" s="37" t="s">
+      <c r="D75" s="2"/>
+      <c r="E75" s="29" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A76" s="16" t="s">
+    <row r="76" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A76" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B76" s="16" t="s">
+      <c r="B76" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C76" s="17" t="s">
+      <c r="C76" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17" t="s">
+      <c r="D76" s="2"/>
+      <c r="E76" s="2" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="16" t="s">
+    <row r="77" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A77" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B77" s="16" t="s">
+      <c r="B77" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="C77" s="17" t="s">
+      <c r="C77" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17" t="s">
+      <c r="D77" s="2"/>
+      <c r="E77" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A78" s="16" t="s">
+    <row r="78" spans="1:5" ht="42" x14ac:dyDescent="0.15">
+      <c r="A78" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B78" s="16" t="s">
+      <c r="B78" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="C78" s="17" t="s">
+      <c r="C78" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17" t="s">
+      <c r="D78" s="2"/>
+      <c r="E78" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="16" t="s">
+    <row r="79" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A79" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B79" s="16" t="s">
+      <c r="B79" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="C79" s="17" t="s">
+      <c r="C79" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D79" s="17"/>
-      <c r="E79" s="17"/>
-    </row>
-    <row r="80" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A80" s="16" t="s">
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+    </row>
+    <row r="80" spans="1:5" ht="56" x14ac:dyDescent="0.15">
+      <c r="A80" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B80" s="16" t="s">
+      <c r="B80" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="C80" s="17" t="s">
+      <c r="C80" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D80" s="17"/>
-      <c r="E80" s="17" t="s">
+      <c r="D80" s="2"/>
+      <c r="E80" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A81" s="16" t="s">
+    <row r="81" spans="1:5" ht="56" x14ac:dyDescent="0.15">
+      <c r="A81" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B81" s="16" t="s">
+      <c r="B81" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="C81" s="17" t="s">
+      <c r="C81" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D81" s="17"/>
-      <c r="E81" s="17" t="s">
+      <c r="D81" s="2"/>
+      <c r="E81" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="16" t="s">
+    <row r="82" spans="1:5" ht="70" x14ac:dyDescent="0.15">
+      <c r="A82" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B82" s="16" t="s">
+      <c r="B82" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="C82" s="17" t="s">
+      <c r="C82" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D82" s="17"/>
-      <c r="E82" s="17" t="s">
+      <c r="D82" s="2"/>
+      <c r="E82" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A83" s="16" t="s">
+    <row r="83" spans="1:5" ht="56" x14ac:dyDescent="0.15">
+      <c r="A83" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B83" s="16" t="s">
+      <c r="B83" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="C83" s="17" t="s">
+      <c r="C83" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D83" s="17"/>
-      <c r="E83" s="17" t="s">
+      <c r="D83" s="2"/>
+      <c r="E83" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A84" s="16" t="s">
+    <row r="84" spans="1:5" ht="56" x14ac:dyDescent="0.15">
+      <c r="A84" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B84" s="16" t="s">
+      <c r="B84" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="C84" s="17" t="s">
+      <c r="C84" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17" t="s">
+      <c r="D84" s="2"/>
+      <c r="E84" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A85" s="16" t="s">
+    <row r="85" spans="1:5" ht="56" x14ac:dyDescent="0.15">
+      <c r="A85" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B85" s="16" t="s">
+      <c r="B85" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="C85" s="17" t="s">
+      <c r="C85" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D85" s="17"/>
-      <c r="E85" s="17" t="s">
+      <c r="D85" s="2"/>
+      <c r="E85" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" s="16" t="s">
+    <row r="86" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A86" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="B86" s="16" t="s">
+      <c r="B86" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="C86" s="17" t="s">
+      <c r="C86" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D86" s="17"/>
-      <c r="E86" s="32" t="s">
+      <c r="D86" s="2"/>
+      <c r="E86" s="28" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A87" s="16" t="s">
+    <row r="87" spans="1:5" ht="42" x14ac:dyDescent="0.15">
+      <c r="A87" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="B87" s="16" t="s">
+      <c r="B87" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C87" s="17" t="s">
+      <c r="C87" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D87" s="17"/>
-      <c r="E87" s="38" t="s">
+      <c r="D87" s="2"/>
+      <c r="E87" s="29" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" s="16" t="s">
+    <row r="88" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A88" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="B88" s="16" t="s">
+      <c r="B88" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="C88" s="17" t="s">
+      <c r="C88" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D88" s="17"/>
-      <c r="E88" s="17"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="16" t="s">
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+    </row>
+    <row r="89" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A89" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="B89" s="16" t="s">
+      <c r="B89" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="C89" s="17" t="s">
+      <c r="C89" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D89" s="17" t="s">
+      <c r="D89" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E89" s="17"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="16" t="s">
+      <c r="E89" s="2"/>
+    </row>
+    <row r="90" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A90" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="B90" s="16" t="s">
+      <c r="B90" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="C90" s="17" t="s">
+      <c r="C90" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D90" s="17"/>
-      <c r="E90" s="17"/>
-    </row>
-    <row r="91" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A91" s="16" t="s">
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+    </row>
+    <row r="91" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A91" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B91" s="16" t="s">
+      <c r="B91" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="C91" s="16" t="s">
+      <c r="C91" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="D91" s="16"/>
-      <c r="E91" s="32" t="s">
+      <c r="D91" s="14"/>
+      <c r="E91" s="28" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A92" s="16" t="s">
+    <row r="92" spans="1:5" ht="42" x14ac:dyDescent="0.15">
+      <c r="A92" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B92" s="16" t="s">
+      <c r="B92" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C92" s="17" t="s">
+      <c r="C92" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D92" s="17"/>
-      <c r="E92" s="39" t="s">
+      <c r="D92" s="2"/>
+      <c r="E92" s="29" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="16" t="s">
+    <row r="93" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A93" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B93" s="16" t="s">
+      <c r="B93" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="C93" s="16" t="s">
+      <c r="C93" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="D93" s="16"/>
-      <c r="E93" s="16"/>
-    </row>
-    <row r="94" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A94" s="16" t="s">
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+    </row>
+    <row r="94" spans="1:5" ht="28" x14ac:dyDescent="0.15">
+      <c r="A94" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B94" s="16" t="s">
+      <c r="B94" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="C94" s="16" t="s">
+      <c r="C94" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="D94" s="16"/>
-      <c r="E94" s="16"/>
-    </row>
-    <row r="95" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+    </row>
+    <row r="95" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B95" s="18" t="s">
+      <c r="B95" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C95" s="17" t="s">
+      <c r="C95" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D95" s="17"/>
-      <c r="E95" s="40" t="s">
+      <c r="D95" s="2"/>
+      <c r="E95" s="29" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A96" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B96" s="18" t="s">
+      <c r="B96" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C96" s="17" t="s">
+      <c r="C96" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D96" s="18"/>
-      <c r="E96" s="17" t="s">
+      <c r="D96" s="15"/>
+      <c r="E96" s="2" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" ht="126" x14ac:dyDescent="0.15">
       <c r="A97" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B97" s="18" t="s">
+      <c r="B97" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="C97" s="17" t="s">
+      <c r="C97" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D97" s="17" t="s">
+      <c r="D97" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E97" s="17" t="s">
+      <c r="E97" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B98" s="18" t="s">
+      <c r="B98" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="C98" s="17" t="s">
+      <c r="C98" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D98" s="18"/>
-      <c r="E98" s="18"/>
-    </row>
-    <row r="99" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D98" s="15"/>
+      <c r="E98" s="15"/>
+    </row>
+    <row r="99" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B99" s="18" t="s">
+      <c r="B99" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C99" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D99" s="18"/>
-      <c r="E99" s="32" t="s">
+      <c r="D99" s="15"/>
+      <c r="E99" s="28" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A100" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B100" s="18" t="s">
+      <c r="B100" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C100" s="17" t="s">
+      <c r="C100" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D100" s="17"/>
-      <c r="E100" s="41" t="s">
+      <c r="D100" s="2"/>
+      <c r="E100" s="29" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" ht="70" x14ac:dyDescent="0.15">
       <c r="A101" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B101" s="18" t="s">
+      <c r="B101" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="C101" s="6" t="s">
+      <c r="C101" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="D101" s="17" t="s">
+      <c r="D101" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E101" s="18"/>
-    </row>
-    <row r="102" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E101" s="15"/>
+    </row>
+    <row r="102" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A102" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B102" s="18" t="s">
+      <c r="B102" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="C102" s="17" t="s">
+      <c r="C102" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D102" s="18"/>
-      <c r="E102" s="18"/>
-    </row>
-    <row r="103" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D102" s="15"/>
+      <c r="E102" s="15"/>
+    </row>
+    <row r="103" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A103" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B103" s="18" t="s">
+      <c r="B103" s="15" t="s">
         <v>198</v>
       </c>
-      <c r="C103" s="17" t="s">
+      <c r="C103" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D103" s="18"/>
-      <c r="E103" s="18"/>
-    </row>
-    <row r="104" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="D103" s="15"/>
+      <c r="E103" s="15"/>
+    </row>
+    <row r="104" spans="1:5" ht="56" x14ac:dyDescent="0.15">
       <c r="A104" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B104" s="18" t="s">
+      <c r="B104" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="C104" s="17" t="s">
+      <c r="C104" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D104" s="18"/>
-      <c r="E104" s="18"/>
-    </row>
-    <row r="105" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D104" s="15"/>
+      <c r="E104" s="15"/>
+    </row>
+    <row r="105" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A105" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B105" s="18" t="s">
+      <c r="B105" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C105" s="17" t="s">
+      <c r="C105" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D105" s="17"/>
-      <c r="E105" s="42" t="s">
+      <c r="D105" s="2"/>
+      <c r="E105" s="29" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A106" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B106" s="18" t="s">
+      <c r="B106" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="C106" s="17" t="s">
+      <c r="C106" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D106" s="18"/>
-      <c r="E106" s="18"/>
-    </row>
-    <row r="107" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D106" s="15"/>
+      <c r="E106" s="15"/>
+    </row>
+    <row r="107" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A107" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B107" s="18" t="s">
+      <c r="B107" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="C107" s="17" t="s">
+      <c r="C107" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D107" s="17" t="s">
+      <c r="D107" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="E107" s="18"/>
-    </row>
-    <row r="108" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E107" s="15"/>
+    </row>
+    <row r="108" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A108" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B108" s="18" t="s">
+      <c r="B108" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="C108" s="17" t="s">
+      <c r="C108" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D108" s="18"/>
-      <c r="E108" s="18"/>
-    </row>
-    <row r="109" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D108" s="15"/>
+      <c r="E108" s="15"/>
+    </row>
+    <row r="109" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A109" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B109" s="18" t="s">
+      <c r="B109" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="C109" s="17" t="s">
+      <c r="C109" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D109" s="18"/>
-      <c r="E109" s="17" t="s">
+      <c r="D109" s="15"/>
+      <c r="E109" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A110" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B110" s="18" t="s">
+      <c r="B110" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="C110" s="17" t="s">
+      <c r="C110" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D110" s="18"/>
-      <c r="E110" s="18" t="s">
+      <c r="D110" s="15"/>
+      <c r="E110" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A111" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B111" s="18" t="s">
+      <c r="B111" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="C111" s="17" t="s">
+      <c r="C111" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D111" s="18"/>
-      <c r="E111" s="18" t="s">
+      <c r="D111" s="15"/>
+      <c r="E111" s="15" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A112" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B112" s="18" t="s">
+      <c r="B112" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="C112" s="17" t="s">
+      <c r="C112" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D112" s="17" t="s">
+      <c r="D112" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="E112" s="17" t="s">
+      <c r="E112" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A113" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B113" s="18" t="s">
+      <c r="B113" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="C113" s="17" t="s">
+      <c r="C113" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D113" s="18"/>
-      <c r="E113" s="32" t="s">
+      <c r="D113" s="15"/>
+      <c r="E113" s="28" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A114" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B114" s="18" t="s">
+      <c r="B114" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C114" s="17" t="s">
+      <c r="C114" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D114" s="17"/>
-      <c r="E114" s="43" t="s">
+      <c r="D114" s="2"/>
+      <c r="E114" s="29" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A115" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B115" s="18" t="s">
+      <c r="B115" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="C115" s="18" t="s">
+      <c r="C115" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="D115" s="17" t="s">
+      <c r="D115" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="E115" s="18"/>
-    </row>
-    <row r="116" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="E115" s="15"/>
+    </row>
+    <row r="116" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A116" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B116" s="18" t="s">
+      <c r="B116" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="C116" s="17" t="s">
+      <c r="C116" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D116" s="18"/>
-      <c r="E116" s="17" t="s">
+      <c r="D116" s="15"/>
+      <c r="E116" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A117" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B117" s="18" t="s">
+      <c r="B117" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="C117" s="17" t="s">
+      <c r="C117" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D117" s="17"/>
-      <c r="E117" s="32" t="s">
+      <c r="D117" s="2"/>
+      <c r="E117" s="28" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A118" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B118" s="18" t="s">
+      <c r="B118" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="C118" s="18" t="s">
+      <c r="C118" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="D118" s="18"/>
-      <c r="E118" s="18"/>
-    </row>
-    <row r="119" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D118" s="15"/>
+      <c r="E118" s="15"/>
+    </row>
+    <row r="119" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A119" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B119" s="18" t="s">
+      <c r="B119" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="C119" s="18" t="s">
+      <c r="C119" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="D119" s="18"/>
-      <c r="E119" s="18"/>
-    </row>
-    <row r="120" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D119" s="15"/>
+      <c r="E119" s="15"/>
+    </row>
+    <row r="120" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A120" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B120" s="18" t="s">
+      <c r="B120" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="C120" s="18" t="s">
+      <c r="C120" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="D120" s="18"/>
-      <c r="E120" s="18"/>
-    </row>
-    <row r="121" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="D120" s="15"/>
+      <c r="E120" s="15"/>
+    </row>
+    <row r="121" spans="1:5" ht="42" x14ac:dyDescent="0.15">
       <c r="A121" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B121" s="18" t="s">
+      <c r="B121" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="C121" s="18" t="s">
+      <c r="C121" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="D121" s="18"/>
-      <c r="E121" s="18"/>
-    </row>
-    <row r="122" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D121" s="15"/>
+      <c r="E121" s="15"/>
+    </row>
+    <row r="122" spans="1:5" ht="28" x14ac:dyDescent="0.15">
       <c r="A122" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B122" s="18" t="s">
+      <c r="B122" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="C122" s="18" t="s">
+      <c r="C122" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="D122" s="18"/>
-      <c r="E122" s="18"/>
-    </row>
-    <row r="123" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="D122" s="15"/>
+      <c r="E122" s="15"/>
+    </row>
+    <row r="123" spans="1:5" ht="70" x14ac:dyDescent="0.15">
       <c r="A123" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B123" s="18" t="s">
+      <c r="B123" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="C123" s="18" t="s">
+      <c r="C123" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="D123" s="18"/>
-      <c r="E123" s="18"/>
+      <c r="D123" s="15"/>
+      <c r="E123" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4256,132 +4190,132 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A1" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="61"/>
-    </row>
-    <row r="2" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="49" t="s">
+      <c r="B1" s="47"/>
+    </row>
+    <row r="2" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="35" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="B3" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="B4" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="B5" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="B6" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="B7" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="B8" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="11" t="s">
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="B9" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="B10" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="B11" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="B12" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B13" s="11" t="s">
+    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="B13" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="49" t="s">
+    <row r="14" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="35" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B15" s="11" t="s">
+    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="B15" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="11" t="s">
+    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="A16" s="10"/>
+      <c r="B16" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B17" s="11" t="s">
+    <row r="17" spans="2:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="B17" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B18" s="11" t="s">
+    <row r="18" spans="2:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="B18" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B19" s="11" t="s">
+    <row r="19" spans="2:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="B19" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B20" s="11" t="s">
+    <row r="20" spans="2:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="B20" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B21" s="11" t="s">
+    <row r="21" spans="2:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="B21" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B22" s="11" t="s">
+    <row r="22" spans="2:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="B22" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="B23" s="11" t="s">
+    <row r="23" spans="2:2" ht="15" x14ac:dyDescent="0.15">
+      <c r="B23" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4397,259 +4331,2303 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F77A595B-A049-5649-812C-0E2067D495C5}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:F123"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="42.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="65.33203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A2" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="3" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="F3" s="29" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+      <c r="A4" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:6" s="3" customFormat="1" ht="56" x14ac:dyDescent="0.15">
+      <c r="A5" s="30" t="s">
+        <v>334</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A6" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="56" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="31"/>
+      <c r="B9" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+    </row>
+    <row r="10" spans="1:6" ht="56" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="31"/>
+      <c r="B10" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+    </row>
+    <row r="11" spans="1:6" ht="42" x14ac:dyDescent="0.15">
+      <c r="A11" s="31" t="s">
+        <v>334</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>309</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+    </row>
+    <row r="12" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+      <c r="B13" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+      <c r="B14" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="42" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+      <c r="B16" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+      <c r="B17" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="42" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+      <c r="B18" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="28"/>
+      <c r="B19" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="42" x14ac:dyDescent="0.15">
+      <c r="A20" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="29" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="154" x14ac:dyDescent="0.15">
+      <c r="A22" s="31" t="s">
+        <v>334</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="F22" s="31"/>
+    </row>
+    <row r="23" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="42" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="56" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="31"/>
+      <c r="B29" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+    </row>
+    <row r="30" spans="1:6" ht="56" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="31"/>
+      <c r="B30" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+    </row>
+    <row r="31" spans="1:6" ht="42" x14ac:dyDescent="0.15">
+      <c r="A31" s="31" t="s">
+        <v>334</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>309</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+    </row>
+    <row r="32" spans="1:6" ht="42" x14ac:dyDescent="0.15">
+      <c r="A32" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" ht="42" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="56" x14ac:dyDescent="0.15">
+      <c r="A35" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="56" x14ac:dyDescent="0.15">
+      <c r="A36" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="56" x14ac:dyDescent="0.15">
+      <c r="A37" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="56" x14ac:dyDescent="0.15">
+      <c r="A38" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="56" x14ac:dyDescent="0.15">
+      <c r="A39" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="56" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="15"/>
+      <c r="B40" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="56" x14ac:dyDescent="0.15">
+      <c r="A42" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="56" x14ac:dyDescent="0.15">
+      <c r="A43" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="D44" s="45" t="s">
+        <v>303</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="15"/>
+    </row>
+    <row r="45" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="D45" s="46"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="15"/>
+    </row>
+    <row r="46" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="28"/>
+      <c r="B46" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="28" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="42" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="29"/>
+      <c r="B47" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="29" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="42" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="2"/>
+      <c r="B48" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" ht="140" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="2"/>
+      <c r="B49" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="56" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="2"/>
+      <c r="B50" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6" ht="56" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="2"/>
+      <c r="B51" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="2"/>
+      <c r="B52" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="2"/>
+      <c r="B53" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:6" ht="154" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="2"/>
+      <c r="B54" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="2"/>
+      <c r="B55" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6" ht="56" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="2"/>
+      <c r="B56" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="2"/>
+      <c r="B57" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:6" ht="42" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="2"/>
+      <c r="B58" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="2"/>
+      <c r="B59" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="2"/>
+      <c r="B60" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+    </row>
+    <row r="61" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="2"/>
+      <c r="B61" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="2"/>
+      <c r="B62" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+    </row>
+    <row r="63" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="2"/>
+      <c r="B63" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="2"/>
+      <c r="B64" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="1:6" ht="56" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="15"/>
+      <c r="B65" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="56" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="15"/>
+      <c r="B66" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="56" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="15"/>
+      <c r="B67" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="56" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="15"/>
+      <c r="B68" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F68" s="15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="56" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="15"/>
+      <c r="B69" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F69" s="15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="56" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="15"/>
+      <c r="B70" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F70" s="15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="15"/>
+      <c r="B71" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F71" s="15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="56" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="15"/>
+      <c r="B72" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F72" s="15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="56" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="15"/>
+      <c r="B73" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F73" s="15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="42" x14ac:dyDescent="0.15">
+      <c r="A74" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" s="29" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="A75" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="A76" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="42" x14ac:dyDescent="0.15">
+      <c r="A77" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="A78" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+    </row>
+    <row r="79" spans="1:6" ht="56" x14ac:dyDescent="0.15">
+      <c r="A79" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="56" x14ac:dyDescent="0.15">
+      <c r="A80" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C80" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="70" x14ac:dyDescent="0.15">
+      <c r="A81" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C81" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="56" x14ac:dyDescent="0.15">
+      <c r="A82" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C82" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="56" x14ac:dyDescent="0.15">
+      <c r="A83" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="56" x14ac:dyDescent="0.15">
+      <c r="A84" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="28"/>
+      <c r="B85" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" s="28" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="42" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="29"/>
+      <c r="B86" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C86" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" s="29" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="2"/>
+      <c r="B87" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C87" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+    </row>
+    <row r="88" spans="1:6" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="2"/>
+      <c r="B88" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C88" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F88" s="2"/>
+    </row>
+    <row r="89" spans="1:6" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="2"/>
+      <c r="B89" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C89" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+    </row>
+    <row r="90" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A90" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="B90" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C90" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="D90" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="E90" s="14"/>
+      <c r="F90" s="28" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="42" x14ac:dyDescent="0.15">
+      <c r="A91" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="B91" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C91" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" s="29" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A92" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="B92" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C92" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="D92" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+    </row>
+    <row r="93" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="A93" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C93" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="D93" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+    </row>
+    <row r="94" spans="1:6" ht="42" x14ac:dyDescent="0.15">
+      <c r="A94" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C94" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" s="29" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="A95" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E95" s="15"/>
+      <c r="F95" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="126" x14ac:dyDescent="0.15">
+      <c r="A96" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C96" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="28" x14ac:dyDescent="0.15">
+      <c r="A97" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C97" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E97" s="15"/>
+      <c r="F97" s="15"/>
+    </row>
+    <row r="98" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="28"/>
+      <c r="B98" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C98" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E98" s="15"/>
+      <c r="F98" s="28" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="42" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="29"/>
+      <c r="B99" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C99" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" s="29" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="70" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="15"/>
+      <c r="B100" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C100" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F100" s="15"/>
+    </row>
+    <row r="101" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="15"/>
+      <c r="B101" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C101" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E101" s="15"/>
+      <c r="F101" s="15"/>
+    </row>
+    <row r="102" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="15"/>
+      <c r="B102" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C102" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E102" s="15"/>
+      <c r="F102" s="15"/>
+    </row>
+    <row r="103" spans="1:6" ht="56" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="15"/>
+      <c r="B103" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C103" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E103" s="15"/>
+      <c r="F103" s="15"/>
+    </row>
+    <row r="104" spans="1:6" ht="42" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="29"/>
+      <c r="B104" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C104" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" s="29" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="42" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="15"/>
+      <c r="B105" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C105" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E105" s="15"/>
+      <c r="F105" s="15"/>
+    </row>
+    <row r="106" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="15"/>
+      <c r="B106" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C106" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F106" s="15"/>
+    </row>
+    <row r="107" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="15"/>
+      <c r="B107" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C107" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E107" s="15"/>
+      <c r="F107" s="15"/>
+    </row>
+    <row r="108" spans="1:6" ht="42" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="2"/>
+      <c r="B108" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C108" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E108" s="15"/>
+      <c r="F108" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="15"/>
+      <c r="B109" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C109" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E109" s="15"/>
+      <c r="F109" s="15" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="15"/>
+      <c r="B110" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C110" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E110" s="15"/>
+      <c r="F110" s="15" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="42" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="2"/>
+      <c r="B111" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C111" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="28"/>
+      <c r="B112" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C112" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E112" s="15"/>
+      <c r="F112" s="28" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="42" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="29"/>
+      <c r="B113" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C113" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E113" s="2"/>
+      <c r="F113" s="29" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="15"/>
+      <c r="B114" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C114" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D114" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F114" s="15"/>
+    </row>
+    <row r="115" spans="1:6" ht="42" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="2"/>
+      <c r="B115" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C115" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E115" s="15"/>
+      <c r="F115" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="42" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="28"/>
+      <c r="B116" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C116" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E116" s="2"/>
+      <c r="F116" s="28" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="14" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="15"/>
+      <c r="B117" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C117" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="D117" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E117" s="15"/>
+      <c r="F117" s="15"/>
+    </row>
+    <row r="118" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="15"/>
+      <c r="B118" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C118" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="D118" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="E118" s="15"/>
+      <c r="F118" s="15"/>
+    </row>
+    <row r="119" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="15"/>
+      <c r="B119" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C119" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D119" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="E119" s="15"/>
+      <c r="F119" s="15"/>
+    </row>
+    <row r="120" spans="1:6" ht="42" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="15"/>
+      <c r="B120" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C120" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="D120" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="E120" s="15"/>
+      <c r="F120" s="15"/>
+    </row>
+    <row r="121" spans="1:6" ht="28" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="15"/>
+      <c r="B121" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C121" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D121" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="E121" s="15"/>
+      <c r="F121" s="15"/>
+    </row>
+    <row r="122" spans="1:6" ht="70" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="15"/>
+      <c r="B122" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C122" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="D122" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="E122" s="15"/>
+      <c r="F122" s="15"/>
+    </row>
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <autoFilter ref="A1:F123" xr:uid="{F77A595B-A049-5649-812C-0E2067D495C5}">
+    <filterColumn colId="0">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <mergeCells count="1">
+    <mergeCell ref="D44:D45"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>Page &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35E3C268-B8AF-4C34-A264-B1BDFDE0779E}">
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" style="29" customWidth="1"/>
-    <col min="3" max="4" width="38.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="42.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="25.33203125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="28.5" style="25" customWidth="1"/>
+    <col min="3" max="4" width="38.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="42.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="9" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:19" s="7" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="8"/>
-    </row>
-    <row r="2" spans="1:19" s="6" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="6"/>
+    </row>
+    <row r="2" spans="1:19" s="4" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="6" customFormat="1" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+    <row r="3" spans="1:19" s="4" customFormat="1" ht="56" x14ac:dyDescent="0.15">
+      <c r="A3" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="33" t="s">
         <v>320</v>
       </c>
-      <c r="C3" s="48">
+      <c r="C3" s="34">
         <v>43867</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="34" t="s">
         <v>314</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="32" t="s">
         <v>325</v>
       </c>
-      <c r="F3" s="14"/>
-    </row>
-    <row r="4" spans="1:19" s="6" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" spans="1:19" s="4" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A4" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="33" t="s">
         <v>320</v>
       </c>
-      <c r="C4" s="48">
+      <c r="C4" s="34">
         <v>43867</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="34" t="s">
         <v>315</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="32" t="s">
         <v>331</v>
       </c>
-      <c r="F4" s="14"/>
-    </row>
-    <row r="5" spans="1:19" s="6" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="1:19" s="4" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A5" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="33" t="s">
         <v>320</v>
       </c>
-      <c r="C5" s="48">
+      <c r="C5" s="34">
         <v>43867</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="34" t="s">
         <v>316</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="32" t="s">
         <v>326</v>
       </c>
-      <c r="F5" s="14"/>
-    </row>
-    <row r="6" spans="1:19" s="6" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:19" s="4" customFormat="1" ht="56" x14ac:dyDescent="0.15">
+      <c r="A6" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="33" t="s">
         <v>320</v>
       </c>
-      <c r="C6" s="48">
+      <c r="C6" s="34">
         <v>43867</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="34" t="s">
         <v>317</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="32" t="s">
         <v>327</v>
       </c>
-      <c r="F6" s="14"/>
-    </row>
-    <row r="7" spans="1:19" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" spans="1:19" s="4" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A7" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="33" t="s">
         <v>320</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="34">
         <v>43867</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="34" t="s">
         <v>318</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="32" t="s">
         <v>324</v>
       </c>
-      <c r="F7" s="14"/>
-    </row>
-    <row r="8" spans="1:19" s="6" customFormat="1" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="1:19" s="4" customFormat="1" ht="70" x14ac:dyDescent="0.15">
+      <c r="A8" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="33" t="s">
         <v>320</v>
       </c>
-      <c r="C8" s="48">
+      <c r="C8" s="34">
         <v>43867</v>
       </c>
-      <c r="D8" s="48" t="s">
+      <c r="D8" s="34" t="s">
         <v>319</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="F8" s="14"/>
-    </row>
-    <row r="9" spans="1:19" s="6" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="1:19" s="4" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A9" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="33" t="s">
         <v>320</v>
       </c>
-      <c r="C9" s="48">
+      <c r="C9" s="34">
         <v>43867</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="34" t="s">
         <v>316</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="32" t="s">
         <v>328</v>
       </c>
-      <c r="F9" s="14"/>
-    </row>
-    <row r="10" spans="1:19" s="6" customFormat="1" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="1:19" s="4" customFormat="1" ht="56" x14ac:dyDescent="0.15">
+      <c r="A10" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="33" t="s">
         <v>320</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="34">
         <v>43867</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="34" t="s">
         <v>317</v>
       </c>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="32" t="s">
         <v>329</v>
       </c>
-      <c r="F10" s="14"/>
-    </row>
-    <row r="11" spans="1:19" s="6" customFormat="1" ht="39" x14ac:dyDescent="0.25">
-      <c r="A11" s="44" t="s">
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" spans="1:19" s="4" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="A11" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="33" t="s">
         <v>320</v>
       </c>
-      <c r="C11" s="48">
+      <c r="C11" s="34">
         <v>43867</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="34" t="s">
         <v>318</v>
       </c>
-      <c r="E11" s="46" t="s">
+      <c r="E11" s="32" t="s">
         <v>323</v>
       </c>
-      <c r="F11" s="14"/>
-    </row>
-    <row r="12" spans="1:19" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="33" t="s">
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="1:19" ht="14" x14ac:dyDescent="0.15">
+      <c r="A12" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="24">
         <v>42874</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="19" t="s">
+      <c r="D12" s="24"/>
+      <c r="E12" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="F12" s="33"/>
-    </row>
-    <row r="13" spans="1:19" s="1" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="33" t="s">
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="1:19" ht="70" x14ac:dyDescent="0.15">
+      <c r="A13" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="24">
         <v>42536</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="19" t="s">
+      <c r="D13" s="24"/>
+      <c r="E13" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="F13" s="19"/>
+      <c r="F13" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4661,15 +6639,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView topLeftCell="A2" zoomScale="116" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
